--- a/$Resource/Valeo_STLA_Aview_Focus_Active_Alignment_Template.xlsx
+++ b/$Resource/Valeo_STLA_Aview_Focus_Active_Alignment_Template.xlsx
@@ -549,8 +549,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -607,21 +607,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -631,7 +616,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,6 +661,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -689,6 +682,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -789,6 +789,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -801,19 +807,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +837,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,67 +861,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,19 +879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,25 +891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,6 +913,66 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -1484,21 +1484,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1532,6 +1517,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1573,7 +1573,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1591,64 +1591,64 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1657,64 +1657,64 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2391,8 +2391,8 @@
   <sheetPr/>
   <dimension ref="A1:AC70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39:Z45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3696,7 +3696,7 @@
       <c r="AB37" s="99"/>
       <c r="AC37" s="99"/>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" ht="15.15" spans="1:29">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="33"/>
@@ -3915,7 +3915,7 @@
       <c r="AB44" s="99"/>
       <c r="AC44" s="99"/>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" ht="15.15" spans="1:29">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="33"/>
